--- a/static/schedule/Pасписание/12 марта 2024 вторник.xlsx
+++ b/static/schedule/Pасписание/12 марта 2024 вторник.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="113">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -407,6 +407,11 @@
   <si>
     <t>Иностранный язык в профессиональной деятельности
 Иванова Е.В.</t>
+  </si>
+  <si>
+    <t>Физическая культура
+Диф зачет
+Фомина О.Г.</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1712,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2673,7 @@
         <v>53</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>44</v>
